--- a/python_excel_avancado/Amanda Martins.xlsx
+++ b/python_excel_avancado/Amanda Martins.xlsx
@@ -26,15 +26,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0099CCFF"/>
+        <bgColor rgb="0099CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFCC"/>
+        <bgColor rgb="00FFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +54,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,52 +447,57 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Vendedor</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Produtos</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Vendas</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Amanda Martins</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Bolsa de Trabalho</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2" t="n">
         <v>248.73</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Amanda Martins</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>Camisa Térmica</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="2" t="n">
         <v>41.9</v>
       </c>
     </row>
